--- a/OutputData/test results.xlsx
+++ b/OutputData/test results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -435,24 +436,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="55858304"/>
-        <c:axId val="55882880"/>
+        <c:axId val="117150464"/>
+        <c:axId val="117152000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55858304"/>
+        <c:axId val="117150464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55882880"/>
+        <c:crossAx val="117152000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55882880"/>
+        <c:axId val="117152000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,20 +461,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55858304"/>
+        <c:crossAx val="117150464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -690,24 +690,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69006464"/>
-        <c:axId val="69008000"/>
+        <c:axId val="56474240"/>
+        <c:axId val="56484224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69006464"/>
+        <c:axId val="56474240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69008000"/>
+        <c:crossAx val="56484224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69008000"/>
+        <c:axId val="56484224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69006464"/>
+        <c:crossAx val="56474240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,7 +728,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1241,24 +1241,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66751488"/>
-        <c:axId val="66754816"/>
+        <c:axId val="57009664"/>
+        <c:axId val="57011200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66751488"/>
+        <c:axId val="57009664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66754816"/>
+        <c:crossAx val="57011200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66754816"/>
+        <c:axId val="57011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66751488"/>
+        <c:crossAx val="57009664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1279,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1792,24 +1792,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="108912640"/>
-        <c:axId val="108914176"/>
+        <c:axId val="57053184"/>
+        <c:axId val="57054720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108912640"/>
+        <c:axId val="57053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108914176"/>
+        <c:crossAx val="57054720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108914176"/>
+        <c:axId val="57054720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1817,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108912640"/>
+        <c:crossAx val="57053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1830,7 +1830,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2343,24 +2343,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87403904"/>
-        <c:axId val="88056960"/>
+        <c:axId val="57063680"/>
+        <c:axId val="57069568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87403904"/>
+        <c:axId val="57063680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88056960"/>
+        <c:crossAx val="57069568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88056960"/>
+        <c:axId val="57069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +2368,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87403904"/>
+        <c:crossAx val="57063680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2381,7 +2381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2903,24 +2903,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112446080"/>
-        <c:axId val="134825856"/>
+        <c:axId val="57173120"/>
+        <c:axId val="57174656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112446080"/>
+        <c:axId val="57173120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134825856"/>
+        <c:crossAx val="57174656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134825856"/>
+        <c:axId val="57174656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,20 +2928,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112446080"/>
+        <c:crossAx val="57173120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3463,24 +3462,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="134869376"/>
-        <c:axId val="134870912"/>
+        <c:axId val="57200000"/>
+        <c:axId val="57218176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134869376"/>
+        <c:axId val="57200000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134870912"/>
+        <c:crossAx val="57218176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134870912"/>
+        <c:axId val="57218176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3488,20 +3487,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134869376"/>
+        <c:crossAx val="57200000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4023,24 +4021,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135879296"/>
-        <c:axId val="135885184"/>
+        <c:axId val="57235328"/>
+        <c:axId val="57236864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135879296"/>
+        <c:axId val="57235328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135885184"/>
+        <c:crossAx val="57236864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135885184"/>
+        <c:axId val="57236864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4046,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135879296"/>
+        <c:crossAx val="57235328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4061,7 +4059,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7217,7 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -7617,8 +7615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9918,7 +9916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -9927,4 +9925,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>